--- a/web/web/Content/ExcelFile/ta.xlsx
+++ b/web/web/Content/ExcelFile/ta.xlsx
@@ -18,6 +18,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必填</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
@@ -101,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +176,34 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,10 +226,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -420,11 +510,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -458,7 +548,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -470,7 +560,7 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -556,5 +646,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>